--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPM_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPM_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.659334087744905</v>
+        <v>-1.365967021313572</v>
       </c>
       <c r="D2">
-        <v>0.09723524622243573</v>
+        <v>0.1857517862905902</v>
       </c>
       <c r="E2">
         <v>0.6392090355533468</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.2786214546812831</v>
+        <v>0.2708532307417135</v>
       </c>
       <c r="D3">
-        <v>0.7805696561277442</v>
+        <v>0.7890289110717494</v>
       </c>
       <c r="E3">
         <v>0.6392090355533468</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.3713361197241754</v>
+        <v>0.3809840014954694</v>
       </c>
       <c r="D4">
-        <v>0.7104340493625139</v>
+        <v>0.7068693809724627</v>
       </c>
       <c r="E4">
         <v>0.6392090355533468</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.7536503846621774</v>
+        <v>-0.7608707682253308</v>
       </c>
       <c r="D5">
-        <v>0.4511648518697295</v>
+        <v>0.4548127916673992</v>
       </c>
       <c r="E5">
         <v>0.6392090355533468</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.819762053817535</v>
+        <v>1.372684434917427</v>
       </c>
       <c r="D6">
-        <v>0.06897324740674926</v>
+        <v>0.1836830252947494</v>
       </c>
       <c r="E6">
         <v>0.688221686069648</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.954895863096914</v>
+        <v>1.943956698312353</v>
       </c>
       <c r="D7">
-        <v>0.05076108798974199</v>
+        <v>0.06479967657682528</v>
       </c>
       <c r="E7">
         <v>0.688221686069648</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.9435173761536795</v>
+        <v>0.983157800323479</v>
       </c>
       <c r="D8">
-        <v>0.3455520757917694</v>
+        <v>0.336219256605387</v>
       </c>
       <c r="E8">
         <v>0.688221686069648</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.1531227048002621</v>
+        <v>0.1365251797606979</v>
       </c>
       <c r="D9">
-        <v>0.8783199108375408</v>
+        <v>0.8926477706250453</v>
       </c>
       <c r="E9">
         <v>0.6327418593253462</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.010833120013938</v>
+        <v>-0.840107012847862</v>
       </c>
       <c r="D10">
-        <v>0.3122419551240876</v>
+        <v>0.4098859307663605</v>
       </c>
       <c r="E10">
         <v>0.6327418593253462</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.106098191765189</v>
+        <v>-0.957617674931979</v>
       </c>
       <c r="D11">
-        <v>0.2688424789490478</v>
+        <v>0.3486617313706291</v>
       </c>
       <c r="E11">
         <v>0.629288465277024</v>
